--- a/pythonApp/Maui Core Box Inventory.xlsx
+++ b/pythonApp/Maui Core Box Inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29203"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://geolabsinc-my.sharepoint.com/personal/jason_geolabs_net/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B60A0400-8D55-45CC-B9F0-31D3CB2304BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C878380-AC07-4EB8-9ED8-6018229C7950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="5" xr2:uid="{770D8D4C-7826-4BDC-B8D0-7AE82AE9BA5C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{770D8D4C-7826-4BDC-B8D0-7AE82AE9BA5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Maui Core List - December 2023" sheetId="4" r:id="rId1"/>
@@ -22,11 +22,11 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Maui Core List - December 2023'!$A$1:$L$45</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Maui Core List - January 2024'!$A$1:$M$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Maui Core List - January 2024'!$A$1:$L$54</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Maui Core List - January 2025'!$A$1:$L$68</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$M$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Maui Core List - December 2023'!$A$1:$G$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Maui Core List - January 2024'!$A$1:$H$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Maui Core List - January 2024'!$A$1:$G$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Maui Core List - January 2025'!$A$1:$G$68</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet2!$A$1:$H$52</definedName>
   </definedNames>
@@ -1650,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A27187E-72C1-420F-AF9B-54FE9E0224B8}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="L1" s="6">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="M1" s="6">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
+        <v>45883</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4938,1205 +4938,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CD8AC3-6ECA-4934-B976-DBAC2706A84F}">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="45.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1"/>
-    <col min="12" max="12" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="30">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="6">
-        <f ca="1">TODAY()</f>
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="21" customHeight="1">
-      <c r="A2" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" s="15"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="6"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="18">
-        <v>43385</v>
-      </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19">
-        <f>EDATE(D10,2)</f>
-        <v>43446</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="18">
-        <v>42485</v>
-      </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19">
-        <f>EDATE(D11,3)</f>
-        <v>42576</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="18">
-        <v>42872</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="19">
-        <f t="shared" ref="F13:F14" si="0">EDATE(D13,3)</f>
-        <v>42964</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="18">
-        <v>43482</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="19">
-        <f t="shared" si="0"/>
-        <v>43572</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="18">
-        <v>43175</v>
-      </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19">
-        <f>EDATE(D16,3)</f>
-        <v>43267</v>
-      </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="18">
-        <v>43353</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="19">
-        <f>EDATE(D17,3)</f>
-        <v>43444</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="18">
-        <v>43446</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="19">
-        <f>EDATE(D18,3)</f>
-        <v>43536</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="18">
-        <v>43679</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="19">
-        <f>EDATE(D19,3)</f>
-        <v>43771</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="30">
-      <c r="A20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="18">
-        <v>44313</v>
-      </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="19">
-        <f>EDATE(D20,3)</f>
-        <v>44404</v>
-      </c>
-      <c r="G20" s="17"/>
-      <c r="H20" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E21" s="18"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="18">
-        <v>44323</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="19">
-        <f>EDATE(D22,3)</f>
-        <v>44415</v>
-      </c>
-      <c r="G22" s="17"/>
-      <c r="H22" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="18">
-        <v>44405</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="19">
-        <f>EDATE(D24,3)</f>
-        <v>44497</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="18">
-        <v>44727</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="19">
-        <f t="shared" ref="F25:F30" si="1">EDATE(D25,3)</f>
-        <v>44819</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="18">
-        <v>44726</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="19">
-        <f t="shared" si="1"/>
-        <v>44818</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="18">
-        <v>45113</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="19">
-        <f t="shared" si="1"/>
-        <v>45205</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="18">
-        <v>44910</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="19">
-        <f t="shared" si="1"/>
-        <v>45000</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="18">
-        <v>45133</v>
-      </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19">
-        <f t="shared" si="1"/>
-        <v>45225</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="18">
-        <v>44361</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19">
-        <f>EDATE(D31,3)</f>
-        <v>44453</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="18">
-        <v>44323</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="19">
-        <f>EDATE(D32,3)</f>
-        <v>44415</v>
-      </c>
-      <c r="G32" s="17"/>
-      <c r="H32" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="18">
-        <v>45054</v>
-      </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="19">
-        <f>EDATE(D33,3)</f>
-        <v>45146</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="30">
-      <c r="A34" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="18">
-        <v>44813</v>
-      </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19">
-        <f t="shared" ref="F34" si="2">EDATE(D34,3)</f>
-        <v>44904</v>
-      </c>
-      <c r="G34" s="17"/>
-      <c r="H34" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="16" t="s">
-        <v>259</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="15"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="18">
-        <v>44343</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="19">
-        <f>EDATE(D36,3)</f>
-        <v>44435</v>
-      </c>
-      <c r="G36" s="17"/>
-      <c r="H36" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D38" s="18">
-        <v>44741</v>
-      </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19">
-        <f>EDATE(D38,3)</f>
-        <v>44833</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="18">
-        <v>44391</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19">
-        <f>EDATE(D39,3)</f>
-        <v>44483</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="18">
-        <v>44351</v>
-      </c>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19">
-        <f>EDATE(D40,3)</f>
-        <v>44443</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B41" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" s="18">
-        <v>44741</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="19">
-        <f t="shared" ref="F41:F43" si="3">EDATE(D41,3)</f>
-        <v>44833</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="18">
-        <v>44756</v>
-      </c>
-      <c r="E42" s="18"/>
-      <c r="F42" s="19">
-        <f t="shared" si="3"/>
-        <v>44848</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B43" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="18">
-        <v>45058</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="19">
-        <f t="shared" si="3"/>
-        <v>45150</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="18">
-        <v>44400</v>
-      </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19">
-        <f>EDATE(D44,3)</f>
-        <v>44492</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="18">
-        <v>44762</v>
-      </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="19">
-        <f t="shared" ref="F45" si="4">EDATE(D45,3)</f>
-        <v>44854</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
-      <c r="A49" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C49" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" s="18">
-        <v>44741</v>
-      </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19">
-        <f t="shared" ref="F49:F50" si="5">EDATE(D49,3)</f>
-        <v>44833</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="18">
-        <v>44651</v>
-      </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="19">
-        <f t="shared" si="5"/>
-        <v>44742</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="18">
-        <v>44853</v>
-      </c>
-      <c r="E52" s="18"/>
-      <c r="F52" s="19">
-        <f t="shared" ref="F52" si="6">EDATE(D52,3)</f>
-        <v>44945</v>
-      </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E53" s="18"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="5"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="6"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:M54" xr:uid="{956725B6-1716-4AC3-B1BD-60A339199F72}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M54">
-      <sortCondition ref="A1:A54"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="F21:F54">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>$M$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="60" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D20971-257E-47AB-85E2-6D7D259A9698}">
-  <dimension ref="A1:L68"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -6183,7 +4988,1147 @@
       </c>
       <c r="L1" s="6">
         <f ca="1">TODAY()</f>
-        <v>45876</v>
+        <v>45883</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="21" customHeight="1">
+      <c r="A2" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G2" s="15"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="18">
+        <v>43385</v>
+      </c>
+      <c r="E10" s="19">
+        <f>EDATE(D10,2)</f>
+        <v>43446</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="18">
+        <v>42485</v>
+      </c>
+      <c r="E11" s="19">
+        <f>EDATE(D11,3)</f>
+        <v>42576</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="18">
+        <v>42872</v>
+      </c>
+      <c r="E13" s="19">
+        <f t="shared" ref="E13:E14" si="0">EDATE(D13,3)</f>
+        <v>42964</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="18">
+        <v>43482</v>
+      </c>
+      <c r="E14" s="19">
+        <f t="shared" si="0"/>
+        <v>43572</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="18">
+        <v>43175</v>
+      </c>
+      <c r="E16" s="19">
+        <f>EDATE(D16,3)</f>
+        <v>43267</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="18">
+        <v>43353</v>
+      </c>
+      <c r="E17" s="19">
+        <f>EDATE(D17,3)</f>
+        <v>43444</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="18">
+        <v>43446</v>
+      </c>
+      <c r="E18" s="19">
+        <f>EDATE(D18,3)</f>
+        <v>43536</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="18">
+        <v>43679</v>
+      </c>
+      <c r="E19" s="19">
+        <f>EDATE(D19,3)</f>
+        <v>43771</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30">
+      <c r="A20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="18">
+        <v>44313</v>
+      </c>
+      <c r="E20" s="19">
+        <f>EDATE(D20,3)</f>
+        <v>44404</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="18">
+        <v>44323</v>
+      </c>
+      <c r="E22" s="19">
+        <f>EDATE(D22,3)</f>
+        <v>44415</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="18">
+        <v>44405</v>
+      </c>
+      <c r="E24" s="19">
+        <f>EDATE(D24,3)</f>
+        <v>44497</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="18">
+        <v>44727</v>
+      </c>
+      <c r="E25" s="19">
+        <f t="shared" ref="E25:E30" si="1">EDATE(D25,3)</f>
+        <v>44819</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="18">
+        <v>44726</v>
+      </c>
+      <c r="E26" s="19">
+        <f t="shared" si="1"/>
+        <v>44818</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="18">
+        <v>45113</v>
+      </c>
+      <c r="E27" s="19">
+        <f t="shared" si="1"/>
+        <v>45205</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="18">
+        <v>44910</v>
+      </c>
+      <c r="E29" s="19">
+        <f t="shared" si="1"/>
+        <v>45000</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" s="18">
+        <v>45133</v>
+      </c>
+      <c r="E30" s="19">
+        <f t="shared" si="1"/>
+        <v>45225</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="18">
+        <v>44361</v>
+      </c>
+      <c r="E31" s="19">
+        <f>EDATE(D31,3)</f>
+        <v>44453</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="18">
+        <v>44323</v>
+      </c>
+      <c r="E32" s="19">
+        <f>EDATE(D32,3)</f>
+        <v>44415</v>
+      </c>
+      <c r="F32" s="17"/>
+      <c r="G32" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33" s="18">
+        <v>45054</v>
+      </c>
+      <c r="E33" s="19">
+        <f>EDATE(D33,3)</f>
+        <v>45146</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30">
+      <c r="A34" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="18">
+        <v>44813</v>
+      </c>
+      <c r="E34" s="19">
+        <f t="shared" ref="E34" si="2">EDATE(D34,3)</f>
+        <v>44904</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="15"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="18">
+        <v>44343</v>
+      </c>
+      <c r="E36" s="19">
+        <f>EDATE(D36,3)</f>
+        <v>44435</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="18">
+        <v>44741</v>
+      </c>
+      <c r="E38" s="19">
+        <f>EDATE(D38,3)</f>
+        <v>44833</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="18">
+        <v>44391</v>
+      </c>
+      <c r="E39" s="19">
+        <f>EDATE(D39,3)</f>
+        <v>44483</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="18">
+        <v>44351</v>
+      </c>
+      <c r="E40" s="19">
+        <f>EDATE(D40,3)</f>
+        <v>44443</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="18">
+        <v>44741</v>
+      </c>
+      <c r="E41" s="19">
+        <f t="shared" ref="E41:E43" si="3">EDATE(D41,3)</f>
+        <v>44833</v>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" s="18">
+        <v>44756</v>
+      </c>
+      <c r="E42" s="19">
+        <f t="shared" si="3"/>
+        <v>44848</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43" s="18">
+        <v>45058</v>
+      </c>
+      <c r="E43" s="19">
+        <f t="shared" si="3"/>
+        <v>45150</v>
+      </c>
+      <c r="F43" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="18">
+        <v>44400</v>
+      </c>
+      <c r="E44" s="19">
+        <f>EDATE(D44,3)</f>
+        <v>44492</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="18">
+        <v>44762</v>
+      </c>
+      <c r="E45" s="19">
+        <f t="shared" ref="E45" si="4">EDATE(D45,3)</f>
+        <v>44854</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="19"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="19"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E48" s="19"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="18">
+        <v>44741</v>
+      </c>
+      <c r="E49" s="19">
+        <f t="shared" ref="E49:E50" si="5">EDATE(D49,3)</f>
+        <v>44833</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="18">
+        <v>44651</v>
+      </c>
+      <c r="E50" s="19">
+        <f t="shared" si="5"/>
+        <v>44742</v>
+      </c>
+      <c r="F50" s="17"/>
+      <c r="G50" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="19"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="18">
+        <v>44853</v>
+      </c>
+      <c r="E52" s="19">
+        <f t="shared" ref="E52" si="6">EDATE(D52,3)</f>
+        <v>44945</v>
+      </c>
+      <c r="F52" s="17"/>
+      <c r="G52" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E53" s="19"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="6"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L54" xr:uid="{956725B6-1716-4AC3-B1BD-60A339199F72}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L54">
+      <sortCondition ref="A1:A54"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="E21:E54">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>$L$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="60" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D20971-257E-47AB-85E2-6D7D259A9698}">
+  <dimension ref="A1:L68"/>
+  <sheetViews>
+    <sheetView zoomScale="98" zoomScaleNormal="98" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="45.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="6">
+        <f ca="1">TODAY()</f>
+        <v>45883</v>
       </c>
     </row>
     <row r="2" spans="1:12">
